--- a/data/trans_orig/Viv_Temp_insuf-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Viv_Temp_insuf-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28F3BB49-40F5-4A8A-8EFD-471BF17C7C33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{486A9139-39B1-4255-B294-9BBDEA16370E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4ED04315-57F4-4733-9C92-4B7528B7E4A9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D7727B51-0D4F-48FA-895E-46DEE20D118B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="164">
   <si>
     <t>Hogares según si la temperatura es insuficiente en 2007 (Tasa respuesta: 73,1%)</t>
   </si>
@@ -251,7 +251,7 @@
     <t>99,87%</t>
   </si>
   <si>
-    <t>Hogares según si la temperatura es insuficiente en 2015 (Tasa respuesta: 75,96%)</t>
+    <t>Hogares según si la temperatura es insuficiente en 2016 (Tasa respuesta: 75,96%)</t>
   </si>
   <si>
     <t>2,52%</t>
@@ -326,217 +326,211 @@
     <t>52,54%</t>
   </si>
   <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>63,71%</t>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>63,64%</t>
   </si>
   <si>
     <t>51,89%</t>
   </si>
   <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>66,01%</t>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
   </si>
   <si>
     <t>52,24%</t>
   </si>
   <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>60,64%</t>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>60,66%</t>
   </si>
   <si>
     <t>47,46%</t>
   </si>
   <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>58,92%</t>
   </si>
   <si>
     <t>48,11%</t>
   </si>
   <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>61,82%</t>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>60,92%</t>
   </si>
   <si>
     <t>47,76%</t>
   </si>
   <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>56,58%</t>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>56,62%</t>
   </si>
   <si>
     <t>41,4%</t>
   </si>
   <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>45,62%</t>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
   </si>
   <si>
     <t>43,02%</t>
   </si>
   <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>47,17%</t>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>47,25%</t>
   </si>
   <si>
     <t>42,17%</t>
   </si>
   <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
   </si>
   <si>
     <t>58,6%</t>
   </si>
   <si>
-    <t>54,38%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
+    <t>54,25%</t>
+  </si>
+  <si>
+    <t>62,86%</t>
   </si>
   <si>
     <t>56,98%</t>
   </si>
   <si>
-    <t>52,83%</t>
-  </si>
-  <si>
-    <t>61,51%</t>
+    <t>52,75%</t>
+  </si>
+  <si>
+    <t>61,7%</t>
   </si>
   <si>
     <t>57,83%</t>
   </si>
   <si>
-    <t>54,8%</t>
-  </si>
-  <si>
-    <t>60,85%</t>
+    <t>54,86%</t>
+  </si>
+  <si>
+    <t>60,69%</t>
   </si>
   <si>
     <t>29,75%</t>
   </si>
   <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
   </si>
   <si>
     <t>33,34%</t>
   </si>
   <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
   </si>
   <si>
     <t>31,41%</t>
   </si>
   <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
+    <t>36,0%</t>
   </si>
   <si>
     <t>70,25%</t>
   </si>
   <si>
-    <t>64,13%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
+    <t>63,33%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
   </si>
   <si>
     <t>66,66%</t>
   </si>
   <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>72,65%</t>
+    <t>59,72%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
   </si>
   <si>
     <t>68,59%</t>
   </si>
   <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>73,14%</t>
+    <t>64,0%</t>
   </si>
   <si>
     <t>39,51%</t>
   </si>
   <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>42,8%</t>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
   </si>
   <si>
     <t>41,42%</t>
   </si>
   <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>44,93%</t>
   </si>
   <si>
     <t>40,41%</t>
   </si>
   <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>42,81%</t>
   </si>
   <si>
     <t>60,49%</t>
   </si>
   <si>
-    <t>57,2%</t>
-  </si>
-  <si>
-    <t>63,9%</t>
+    <t>57,01%</t>
+  </si>
+  <si>
+    <t>63,95%</t>
   </si>
   <si>
     <t>58,58%</t>
   </si>
   <si>
-    <t>55,16%</t>
-  </si>
-  <si>
-    <t>62,08%</t>
+    <t>55,07%</t>
+  </si>
+  <si>
+    <t>61,77%</t>
   </si>
   <si>
     <t>59,59%</t>
   </si>
   <si>
-    <t>57,0%</t>
-  </si>
-  <si>
-    <t>61,96%</t>
+    <t>57,19%</t>
+  </si>
+  <si>
+    <t>62,24%</t>
   </si>
 </sst>
 </file>
@@ -948,7 +942,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DE82086-7284-4F50-BD0C-284220F52A58}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E810F63-F7D4-4B9C-82D6-50332BFD9641}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1442,7 +1436,7 @@
         <v>997</v>
       </c>
       <c r="N11" s="7">
-        <v>663953</v>
+        <v>663952</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>19</v>
@@ -1493,7 +1487,7 @@
         <v>997</v>
       </c>
       <c r="N12" s="7">
-        <v>663953</v>
+        <v>663952</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>21</v>
@@ -1837,7 +1831,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85123FD-28B0-4682-8C1E-37B1C115DE4C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B59EF8C-AF1D-4AE4-8A67-5196AE8D289A}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2726,7 +2720,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF58EF32-832A-4E10-B1A6-1FF1705A1F16}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A576665-7F8E-4F45-9CFF-86DC66C9900F}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3615,7 +3609,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FBFE38C-F997-4384-9CB1-3519D08E1745}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C84567D1-9908-4DF4-9A5C-B4F0838F7786}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4231,10 +4225,10 @@
         <v>136</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4249,13 +4243,13 @@
         <v>122004</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="H14" s="7">
         <v>158</v>
@@ -4264,13 +4258,13 @@
         <v>99725</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M14" s="7">
         <v>326</v>
@@ -4279,13 +4273,13 @@
         <v>221729</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>146</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4353,13 +4347,13 @@
         <v>286371</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="H16" s="7">
         <v>373</v>
@@ -4368,13 +4362,13 @@
         <v>270023</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="M16" s="7">
         <v>747</v>
@@ -4383,13 +4377,13 @@
         <v>556393</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4404,13 +4398,13 @@
         <v>438431</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="H17" s="7">
         <v>568</v>
@@ -4419,13 +4413,13 @@
         <v>381917</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="M17" s="7">
         <v>1170</v>
@@ -4434,13 +4428,13 @@
         <v>820349</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/Viv_Temp_insuf-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Viv_Temp_insuf-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{486A9139-39B1-4255-B294-9BBDEA16370E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6DA715E-305F-4336-A32E-58FD06E14751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D7727B51-0D4F-48FA-895E-46DEE20D118B}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{EE40058D-EFD8-42F4-8928-F8BE19674B40}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="160">
   <si>
     <t>Hogares según si la temperatura es insuficiente en 2007 (Tasa respuesta: 73,1%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,108 +68,102 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
     <t>100,0%</t>
   </si>
   <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>97,54%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
     <t>98,81%</t>
   </si>
   <si>
     <t>Secundarios</t>
   </si>
   <si>
+    <t>0,41%</t>
+  </si>
+  <si>
     <t>0,36%</t>
   </si>
   <si>
-    <t>0,41%</t>
-  </si>
-  <si>
     <t>0,19%</t>
   </si>
   <si>
+    <t>99,59%</t>
+  </si>
+  <si>
     <t>99,64%</t>
   </si>
   <si>
-    <t>99,59%</t>
-  </si>
-  <si>
     <t>99,81%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
+    <t>0,96%</t>
+  </si>
+  <si>
     <t>1,04%</t>
   </si>
   <si>
-    <t>0,96%</t>
-  </si>
-  <si>
     <t>0,5%</t>
   </si>
   <si>
+    <t>99,04%</t>
+  </si>
+  <si>
     <t>98,96%</t>
   </si>
   <si>
-    <t>99,04%</t>
-  </si>
-  <si>
     <t>99,5%</t>
   </si>
   <si>
+    <t>0,26%</t>
+  </si>
+  <si>
     <t>0,24%</t>
   </si>
   <si>
-    <t>0,26%</t>
-  </si>
-  <si>
     <t>0,12%</t>
   </si>
   <si>
+    <t>99,74%</t>
+  </si>
+  <si>
     <t>99,76%</t>
   </si>
   <si>
-    <t>99,74%</t>
-  </si>
-  <si>
     <t>99,88%</t>
   </si>
   <si>
@@ -179,132 +173,132 @@
     <t>Hogares según si la temperatura es insuficiente en 2012 (Tasa respuesta: 69,37%)</t>
   </si>
   <si>
+    <t>2,36%</t>
+  </si>
+  <si>
     <t>2,13%</t>
   </si>
   <si>
-    <t>2,36%</t>
-  </si>
-  <si>
     <t>1,13%</t>
   </si>
   <si>
+    <t>97,64%</t>
+  </si>
+  <si>
     <t>97,87%</t>
   </si>
   <si>
-    <t>97,64%</t>
-  </si>
-  <si>
     <t>98,87%</t>
   </si>
   <si>
+    <t>0,43%</t>
+  </si>
+  <si>
     <t>0,39%</t>
   </si>
   <si>
-    <t>0,43%</t>
-  </si>
-  <si>
     <t>0,21%</t>
   </si>
   <si>
+    <t>99,57%</t>
+  </si>
+  <si>
     <t>99,61%</t>
   </si>
   <si>
-    <t>99,57%</t>
-  </si>
-  <si>
     <t>99,79%</t>
   </si>
   <si>
+    <t>1,15%</t>
+  </si>
+  <si>
     <t>0,99%</t>
   </si>
   <si>
-    <t>1,15%</t>
-  </si>
-  <si>
     <t>0,53%</t>
   </si>
   <si>
+    <t>98,85%</t>
+  </si>
+  <si>
     <t>99,01%</t>
   </si>
   <si>
-    <t>98,85%</t>
-  </si>
-  <si>
     <t>99,47%</t>
   </si>
   <si>
+    <t>0,28%</t>
+  </si>
+  <si>
     <t>0,25%</t>
   </si>
   <si>
-    <t>0,28%</t>
-  </si>
-  <si>
     <t>0,13%</t>
   </si>
   <si>
+    <t>99,72%</t>
+  </si>
+  <si>
     <t>99,75%</t>
   </si>
   <si>
-    <t>99,72%</t>
-  </si>
-  <si>
     <t>99,87%</t>
   </si>
   <si>
     <t>Hogares según si la temperatura es insuficiente en 2016 (Tasa respuesta: 75,96%)</t>
   </si>
   <si>
+    <t>2,99%</t>
+  </si>
+  <si>
     <t>2,52%</t>
   </si>
   <si>
-    <t>2,99%</t>
-  </si>
-  <si>
     <t>1,38%</t>
   </si>
   <si>
+    <t>97,01%</t>
+  </si>
+  <si>
     <t>97,48%</t>
   </si>
   <si>
-    <t>97,01%</t>
-  </si>
-  <si>
     <t>98,62%</t>
   </si>
   <si>
+    <t>0,37%</t>
+  </si>
+  <si>
     <t>0,35%</t>
   </si>
   <si>
-    <t>0,37%</t>
-  </si>
-  <si>
     <t>0,18%</t>
   </si>
   <si>
+    <t>99,63%</t>
+  </si>
+  <si>
     <t>99,65%</t>
   </si>
   <si>
-    <t>99,63%</t>
-  </si>
-  <si>
     <t>99,82%</t>
   </si>
   <si>
+    <t>0,95%</t>
+  </si>
+  <si>
     <t>0,93%</t>
   </si>
   <si>
-    <t>0,95%</t>
-  </si>
-  <si>
     <t>0,47%</t>
   </si>
   <si>
+    <t>99,05%</t>
+  </si>
+  <si>
     <t>99,07%</t>
   </si>
   <si>
-    <t>99,05%</t>
-  </si>
-  <si>
     <t>99,53%</t>
   </si>
   <si>
@@ -317,220 +311,214 @@
     <t>Hogares según si la temperatura es insuficiente en 2023 (Tasa respuesta: 99,84%)</t>
   </si>
   <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>52,54%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>63,64%</t>
-  </si>
-  <si>
-    <t>51,89%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>60,66%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>60,92%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>56,62%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
+    <t>48,8%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>64,16%</t>
+  </si>
+  <si>
+    <t>49,93%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>60,8%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>58,29%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>68,31%</t>
+  </si>
+  <si>
+    <t>50,07%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>61,53%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
   </si>
   <si>
     <t>43,02%</t>
   </si>
   <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>47,25%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>58,6%</t>
-  </si>
-  <si>
-    <t>54,25%</t>
-  </si>
-  <si>
-    <t>62,86%</t>
+    <t>60,12%</t>
+  </si>
+  <si>
+    <t>55,53%</t>
+  </si>
+  <si>
+    <t>67,15%</t>
+  </si>
+  <si>
+    <t>56,34%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>60,48%</t>
   </si>
   <si>
     <t>56,98%</t>
   </si>
   <si>
-    <t>52,75%</t>
-  </si>
-  <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>54,86%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
-  </si>
-  <si>
-    <t>63,33%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>66,66%</t>
-  </si>
-  <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>64,0%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>44,93%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>42,81%</t>
-  </si>
-  <si>
-    <t>60,49%</t>
-  </si>
-  <si>
-    <t>57,01%</t>
-  </si>
-  <si>
-    <t>63,95%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>55,07%</t>
-  </si>
-  <si>
-    <t>61,77%</t>
-  </si>
-  <si>
-    <t>59,59%</t>
-  </si>
-  <si>
-    <t>57,19%</t>
-  </si>
-  <si>
-    <t>62,24%</t>
+    <t>64,35%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>73,18%</t>
+  </si>
+  <si>
+    <t>70,52%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>68,88%</t>
+  </si>
+  <si>
+    <t>64,23%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>60,88%</t>
+  </si>
+  <si>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>66,05%</t>
+  </si>
+  <si>
+    <t>62,25%</t>
+  </si>
+  <si>
+    <t>58,9%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>61,61%</t>
+  </si>
+  <si>
+    <t>59,12%</t>
+  </si>
+  <si>
+    <t>64,65%</t>
   </si>
 </sst>
 </file>
@@ -942,8 +930,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E810F63-F7D4-4B9C-82D6-50332BFD9641}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E95FDA35-5A25-49ED-AE1D-37C0C5998910}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1062,86 +1050,98 @@
       <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
-      <c r="N4" s="7"/>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>83</v>
+      </c>
+      <c r="D5" s="7">
+        <v>56462</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>77</v>
+      </c>
+      <c r="I5" s="7">
+        <v>51371</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>160</v>
+      </c>
+      <c r="N5" s="7">
+        <v>107833</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1150,48 +1150,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>83</v>
+      </c>
+      <c r="D6" s="7">
+        <v>56462</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>77</v>
+      </c>
+      <c r="I6" s="7">
+        <v>51371</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>160</v>
+      </c>
+      <c r="N6" s="7">
+        <v>107833</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1203,13 +1209,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -1218,13 +1224,13 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -1233,64 +1239,64 @@
         <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>77</v>
+        <v>465</v>
       </c>
       <c r="D8" s="7">
-        <v>51371</v>
+        <v>310317</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>83</v>
+        <v>532</v>
       </c>
       <c r="I8" s="7">
-        <v>56462</v>
+        <v>353636</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>160</v>
+        <v>997</v>
       </c>
       <c r="N8" s="7">
-        <v>107833</v>
+        <v>663953</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1299,54 +1305,54 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>77</v>
+        <v>465</v>
       </c>
       <c r="D9" s="7">
-        <v>51371</v>
+        <v>310317</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>83</v>
+        <v>532</v>
       </c>
       <c r="I9" s="7">
-        <v>56462</v>
+        <v>353636</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>160</v>
+        <v>997</v>
       </c>
       <c r="N9" s="7">
-        <v>107833</v>
+        <v>663953</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1358,13 +1364,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -1373,13 +1379,13 @@
         <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -1388,64 +1394,64 @@
         <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>532</v>
+        <v>198</v>
       </c>
       <c r="D11" s="7">
-        <v>353636</v>
+        <v>136581</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>465</v>
+        <v>183</v>
       </c>
       <c r="I11" s="7">
-        <v>310316</v>
+        <v>123542</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>997</v>
+        <v>381</v>
       </c>
       <c r="N11" s="7">
-        <v>663952</v>
+        <v>260123</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1454,54 +1460,54 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>532</v>
+        <v>198</v>
       </c>
       <c r="D12" s="7">
-        <v>353636</v>
+        <v>136581</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>465</v>
+        <v>183</v>
       </c>
       <c r="I12" s="7">
-        <v>310316</v>
+        <v>123542</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>997</v>
+        <v>381</v>
       </c>
       <c r="N12" s="7">
-        <v>663952</v>
+        <v>260123</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1513,13 +1519,13 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -1528,13 +1534,13 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -1543,64 +1549,64 @@
         <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>183</v>
+        <v>746</v>
       </c>
       <c r="D14" s="7">
-        <v>123542</v>
+        <v>503359</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>198</v>
+        <v>792</v>
       </c>
       <c r="I14" s="7">
-        <v>136581</v>
+        <v>528549</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>381</v>
+        <v>1538</v>
       </c>
       <c r="N14" s="7">
-        <v>260123</v>
+        <v>1031908</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1609,216 +1615,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>183</v>
+        <v>746</v>
       </c>
       <c r="D15" s="7">
-        <v>123542</v>
+        <v>503359</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
-        <v>198</v>
+        <v>792</v>
       </c>
       <c r="I15" s="7">
-        <v>136581</v>
+        <v>528549</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>381</v>
+        <v>1538</v>
       </c>
       <c r="N15" s="7">
-        <v>260123</v>
+        <v>1031908</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>0</v>
-      </c>
-      <c r="D16" s="7">
-        <v>0</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="7">
-        <v>792</v>
-      </c>
-      <c r="D17" s="7">
-        <v>528550</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" s="7">
-        <v>746</v>
-      </c>
-      <c r="I17" s="7">
-        <v>503359</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K17" s="7" t="s">
+      <c r="A16" t="s">
         <v>42</v>
       </c>
-      <c r="L17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1538</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1031908</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>792</v>
-      </c>
-      <c r="D18" s="7">
-        <v>528550</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="7">
-        <v>746</v>
-      </c>
-      <c r="I18" s="7">
-        <v>503359</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1538</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1031908</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>44</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1831,8 +1681,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B59EF8C-AF1D-4AE4-8A67-5196AE8D289A}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87BC0D6F-23EF-48E6-8106-CF0283D16C6D}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1848,7 +1698,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1951,86 +1801,98 @@
       <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
-      <c r="N4" s="7"/>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>80</v>
+      </c>
+      <c r="D5" s="7">
+        <v>55484</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="I5" s="7">
+        <v>62090</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>169</v>
+      </c>
+      <c r="N5" s="7">
+        <v>117574</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2039,48 +1901,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>80</v>
+      </c>
+      <c r="D6" s="7">
+        <v>55484</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="I6" s="7">
+        <v>62090</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>169</v>
+      </c>
+      <c r="N6" s="7">
+        <v>117574</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2092,13 +1960,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2107,13 +1975,13 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -2122,64 +1990,64 @@
         <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>89</v>
+        <v>441</v>
       </c>
       <c r="D8" s="7">
-        <v>62090</v>
+        <v>304653</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>80</v>
+        <v>487</v>
       </c>
       <c r="I8" s="7">
-        <v>55484</v>
+        <v>339793</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>169</v>
+        <v>928</v>
       </c>
       <c r="N8" s="7">
-        <v>117574</v>
+        <v>644446</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2188,54 +2056,54 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>89</v>
+        <v>441</v>
       </c>
       <c r="D9" s="7">
-        <v>62090</v>
+        <v>304653</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>80</v>
+        <v>487</v>
       </c>
       <c r="I9" s="7">
-        <v>55484</v>
+        <v>339793</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>169</v>
+        <v>928</v>
       </c>
       <c r="N9" s="7">
-        <v>117574</v>
+        <v>644446</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2247,13 +2115,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2262,13 +2130,13 @@
         <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -2277,64 +2145,64 @@
         <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>487</v>
+        <v>166</v>
       </c>
       <c r="D11" s="7">
-        <v>339793</v>
+        <v>116827</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>441</v>
+        <v>193</v>
       </c>
       <c r="I11" s="7">
-        <v>304653</v>
+        <v>136898</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>928</v>
+        <v>359</v>
       </c>
       <c r="N11" s="7">
-        <v>644446</v>
+        <v>253725</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2343,54 +2211,54 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>487</v>
+        <v>166</v>
       </c>
       <c r="D12" s="7">
-        <v>339793</v>
+        <v>116827</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>441</v>
+        <v>193</v>
       </c>
       <c r="I12" s="7">
-        <v>304653</v>
+        <v>136898</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>928</v>
+        <v>359</v>
       </c>
       <c r="N12" s="7">
-        <v>644446</v>
+        <v>253725</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2402,13 +2270,13 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2417,13 +2285,13 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -2432,64 +2300,64 @@
         <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>193</v>
+        <v>687</v>
       </c>
       <c r="D14" s="7">
-        <v>136898</v>
+        <v>476965</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>166</v>
+        <v>769</v>
       </c>
       <c r="I14" s="7">
-        <v>116827</v>
+        <v>538781</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>359</v>
+        <v>1456</v>
       </c>
       <c r="N14" s="7">
-        <v>253725</v>
+        <v>1015746</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2498,216 +2366,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>193</v>
+        <v>687</v>
       </c>
       <c r="D15" s="7">
-        <v>136898</v>
+        <v>476965</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
-        <v>166</v>
+        <v>769</v>
       </c>
       <c r="I15" s="7">
-        <v>116827</v>
+        <v>538781</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>359</v>
+        <v>1456</v>
       </c>
       <c r="N15" s="7">
-        <v>253725</v>
+        <v>1015746</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>0</v>
-      </c>
-      <c r="D16" s="7">
-        <v>0</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="7">
-        <v>769</v>
-      </c>
-      <c r="D17" s="7">
-        <v>538781</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" s="7">
-        <v>687</v>
-      </c>
-      <c r="I17" s="7">
-        <v>476965</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1456</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1015746</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>769</v>
-      </c>
-      <c r="D18" s="7">
-        <v>538781</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="7">
-        <v>687</v>
-      </c>
-      <c r="I18" s="7">
-        <v>476965</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1456</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1015746</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>44</v>
+      <c r="A16" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2720,8 +2432,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A576665-7F8E-4F45-9CFF-86DC66C9900F}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{892CB90A-89A9-40AA-A12A-7480AF5F5A0F}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2737,7 +2449,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2840,86 +2552,98 @@
       <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
-      <c r="N4" s="7"/>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>63</v>
+      </c>
+      <c r="D5" s="7">
+        <v>40641</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>75</v>
+      </c>
+      <c r="I5" s="7">
+        <v>51237</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>138</v>
+      </c>
+      <c r="N5" s="7">
+        <v>91878</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2928,48 +2652,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>63</v>
+      </c>
+      <c r="D6" s="7">
+        <v>40641</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>75</v>
+      </c>
+      <c r="I6" s="7">
+        <v>51237</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>138</v>
+      </c>
+      <c r="N6" s="7">
+        <v>91878</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2981,13 +2711,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2996,13 +2726,13 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -3011,64 +2741,64 @@
         <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>75</v>
+        <v>525</v>
       </c>
       <c r="D8" s="7">
-        <v>51237</v>
+        <v>348722</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>63</v>
+        <v>544</v>
       </c>
       <c r="I8" s="7">
-        <v>40641</v>
+        <v>379866</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>138</v>
+        <v>1069</v>
       </c>
       <c r="N8" s="7">
-        <v>91878</v>
+        <v>728588</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3077,54 +2807,54 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>75</v>
+        <v>525</v>
       </c>
       <c r="D9" s="7">
-        <v>51237</v>
+        <v>348722</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>63</v>
+        <v>544</v>
       </c>
       <c r="I9" s="7">
-        <v>40641</v>
+        <v>379866</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>138</v>
+        <v>1069</v>
       </c>
       <c r="N9" s="7">
-        <v>91878</v>
+        <v>728588</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3136,13 +2866,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3151,13 +2881,13 @@
         <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3166,64 +2896,64 @@
         <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>544</v>
+        <v>202</v>
       </c>
       <c r="D11" s="7">
-        <v>379866</v>
+        <v>136027</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>525</v>
+        <v>206</v>
       </c>
       <c r="I11" s="7">
-        <v>348722</v>
+        <v>139930</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>1069</v>
+        <v>408</v>
       </c>
       <c r="N11" s="7">
-        <v>728588</v>
+        <v>275957</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3232,54 +2962,54 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>544</v>
+        <v>202</v>
       </c>
       <c r="D12" s="7">
-        <v>379866</v>
+        <v>136027</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>525</v>
+        <v>206</v>
       </c>
       <c r="I12" s="7">
-        <v>348722</v>
+        <v>139930</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>1069</v>
+        <v>408</v>
       </c>
       <c r="N12" s="7">
-        <v>728588</v>
+        <v>275957</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3291,13 +3021,13 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3306,13 +3036,13 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -3321,64 +3051,64 @@
         <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>206</v>
+        <v>790</v>
       </c>
       <c r="D14" s="7">
-        <v>139930</v>
+        <v>525390</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>202</v>
+        <v>825</v>
       </c>
       <c r="I14" s="7">
-        <v>136027</v>
+        <v>571033</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>408</v>
+        <v>1615</v>
       </c>
       <c r="N14" s="7">
-        <v>275957</v>
+        <v>1096423</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3387,216 +3117,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>206</v>
+        <v>790</v>
       </c>
       <c r="D15" s="7">
-        <v>139930</v>
+        <v>525390</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
-        <v>202</v>
+        <v>825</v>
       </c>
       <c r="I15" s="7">
-        <v>136027</v>
+        <v>571033</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>408</v>
+        <v>1615</v>
       </c>
       <c r="N15" s="7">
-        <v>275957</v>
+        <v>1096423</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>0</v>
-      </c>
-      <c r="D16" s="7">
-        <v>0</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="7">
-        <v>825</v>
-      </c>
-      <c r="D17" s="7">
-        <v>571033</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" s="7">
-        <v>790</v>
-      </c>
-      <c r="I17" s="7">
-        <v>525390</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1615</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1096423</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>825</v>
-      </c>
-      <c r="D18" s="7">
-        <v>571033</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="7">
-        <v>790</v>
-      </c>
-      <c r="I18" s="7">
-        <v>525390</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1615</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1096423</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>44</v>
+      <c r="A16" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3609,8 +3183,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C84567D1-9908-4DF4-9A5C-B4F0838F7786}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DC2B0B3-080F-496B-B00A-E549043F25C7}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3626,7 +3200,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3727,96 +3301,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>33</v>
+      </c>
+      <c r="D4" s="7">
+        <v>26683</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>30956</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>15</v>
+        <v>94</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>57639</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="D5" s="7">
+        <v>27995</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="I5" s="7">
-        <v>1171</v>
+        <v>31048</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="N5" s="7">
-        <v>1171</v>
+        <v>59043</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3825,151 +3403,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>69</v>
+      </c>
+      <c r="D6" s="7">
+        <v>54678</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="I6" s="7">
-        <v>1171</v>
+        <v>62004</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>152</v>
       </c>
       <c r="N6" s="7">
-        <v>1171</v>
+        <v>116682</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>44</v>
+        <v>270</v>
       </c>
       <c r="D7" s="7">
-        <v>30872</v>
+        <v>183674</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="H7" s="7">
-        <v>33</v>
+        <v>261</v>
       </c>
       <c r="I7" s="7">
-        <v>26567</v>
+        <v>202524</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="M7" s="7">
-        <v>77</v>
+        <v>531</v>
       </c>
       <c r="N7" s="7">
-        <v>57438</v>
+        <v>386198</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>39</v>
+        <v>373</v>
       </c>
       <c r="D8" s="7">
-        <v>27885</v>
+        <v>276836</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="H8" s="7">
-        <v>36</v>
+        <v>395</v>
       </c>
       <c r="I8" s="7">
-        <v>24635</v>
+        <v>314095</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="M8" s="7">
-        <v>75</v>
+        <v>768</v>
       </c>
       <c r="N8" s="7">
-        <v>52521</v>
+        <v>590931</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3978,153 +3558,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>83</v>
+        <v>643</v>
       </c>
       <c r="D9" s="7">
-        <v>58757</v>
+        <v>460510</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>69</v>
+        <v>656</v>
       </c>
       <c r="I9" s="7">
-        <v>51202</v>
+        <v>516619</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>152</v>
+        <v>1299</v>
       </c>
       <c r="N9" s="7">
-        <v>109959</v>
+        <v>977129</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>261</v>
+        <v>70</v>
       </c>
       <c r="D10" s="7">
-        <v>203822</v>
+        <v>49007</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="H10" s="7">
-        <v>270</v>
+        <v>69</v>
       </c>
       <c r="I10" s="7">
-        <v>193583</v>
+        <v>53772</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="M10" s="7">
-        <v>531</v>
+        <v>139</v>
       </c>
       <c r="N10" s="7">
-        <v>397405</v>
+        <v>102779</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>395</v>
+        <v>158</v>
       </c>
       <c r="D11" s="7">
-        <v>288542</v>
+        <v>98810</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="H11" s="7">
-        <v>373</v>
+        <v>168</v>
       </c>
       <c r="I11" s="7">
-        <v>256385</v>
+        <v>128633</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="M11" s="7">
-        <v>768</v>
+        <v>326</v>
       </c>
       <c r="N11" s="7">
-        <v>544928</v>
+        <v>227443</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4133,153 +3713,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>656</v>
+        <v>228</v>
       </c>
       <c r="D12" s="7">
-        <v>492364</v>
+        <v>147817</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>643</v>
+        <v>237</v>
       </c>
       <c r="I12" s="7">
-        <v>449968</v>
+        <v>182405</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>1299</v>
+        <v>465</v>
       </c>
       <c r="N12" s="7">
-        <v>942333</v>
+        <v>330222</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>69</v>
+        <v>373</v>
       </c>
       <c r="D13" s="7">
-        <v>51677</v>
+        <v>259364</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="H13" s="7">
-        <v>70</v>
+        <v>374</v>
       </c>
       <c r="I13" s="7">
-        <v>49873</v>
+        <v>287252</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="M13" s="7">
-        <v>139</v>
+        <v>747</v>
       </c>
       <c r="N13" s="7">
-        <v>101550</v>
+        <v>546616</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>168</v>
+        <v>567</v>
       </c>
       <c r="D14" s="7">
-        <v>122004</v>
+        <v>403640</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="H14" s="7">
+        <v>602</v>
+      </c>
+      <c r="I14" s="7">
+        <v>473776</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="M14" s="7">
+        <v>1169</v>
+      </c>
+      <c r="N14" s="7">
+        <v>877416</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="I14" s="7">
-        <v>99725</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="M14" s="7">
-        <v>326</v>
-      </c>
-      <c r="N14" s="7">
-        <v>221729</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>145</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4288,216 +3868,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>237</v>
+        <v>940</v>
       </c>
       <c r="D15" s="7">
-        <v>173681</v>
+        <v>663004</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
-        <v>228</v>
+        <v>976</v>
       </c>
       <c r="I15" s="7">
-        <v>149598</v>
+        <v>761028</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>465</v>
+        <v>1916</v>
       </c>
       <c r="N15" s="7">
-        <v>323279</v>
+        <v>1424032</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>374</v>
-      </c>
-      <c r="D16" s="7">
-        <v>286371</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="H16" s="7">
-        <v>373</v>
-      </c>
-      <c r="I16" s="7">
-        <v>270023</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="M16" s="7">
-        <v>747</v>
-      </c>
-      <c r="N16" s="7">
-        <v>556393</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="7">
-        <v>602</v>
-      </c>
-      <c r="D17" s="7">
-        <v>438431</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="H17" s="7">
-        <v>568</v>
-      </c>
-      <c r="I17" s="7">
-        <v>381917</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1170</v>
-      </c>
-      <c r="N17" s="7">
-        <v>820349</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>976</v>
-      </c>
-      <c r="D18" s="7">
-        <v>724802</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="7">
-        <v>941</v>
-      </c>
-      <c r="I18" s="7">
-        <v>651940</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1917</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1376742</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>44</v>
+      <c r="A16" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
